--- a/Code/Results/Cases/Case_2_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_175/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.80038644162692</v>
+        <v>8.330358067558683</v>
       </c>
       <c r="C2">
-        <v>7.277968620922126</v>
+        <v>5.245086243497296</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.39330179989183</v>
+        <v>24.71350566460032</v>
       </c>
       <c r="F2">
-        <v>33.77417776406214</v>
+        <v>39.16134544342578</v>
       </c>
       <c r="G2">
-        <v>16.01534948182043</v>
+        <v>23.1509785461277</v>
       </c>
       <c r="H2">
-        <v>7.55952987479394</v>
+        <v>13.01325835140012</v>
       </c>
       <c r="I2">
-        <v>10.89066699601875</v>
+        <v>18.38388474352791</v>
       </c>
       <c r="J2">
-        <v>4.294272602357083</v>
+        <v>7.645351252191472</v>
       </c>
       <c r="K2">
-        <v>11.56048263873643</v>
+        <v>8.066406362232499</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.53883918555197</v>
+        <v>17.2477576635746</v>
       </c>
       <c r="O2">
-        <v>11.52564320515045</v>
+        <v>19.03689494036477</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.0160784539912</v>
+        <v>8.000109851581756</v>
       </c>
       <c r="C3">
-        <v>6.921343048942413</v>
+        <v>5.084424757290152</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.89947080181199</v>
+        <v>24.39100030984826</v>
       </c>
       <c r="F3">
-        <v>32.24406928551791</v>
+        <v>38.97303980010369</v>
       </c>
       <c r="G3">
-        <v>15.94981999199653</v>
+        <v>23.2559722498918</v>
       </c>
       <c r="H3">
-        <v>7.652403849674029</v>
+        <v>13.05969800669259</v>
       </c>
       <c r="I3">
-        <v>11.10385874028151</v>
+        <v>18.47364334783031</v>
       </c>
       <c r="J3">
-        <v>4.340643263753249</v>
+        <v>7.664930123680536</v>
       </c>
       <c r="K3">
-        <v>10.94486375541865</v>
+        <v>7.773221910830254</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.66315897689765</v>
+        <v>17.29076378730346</v>
       </c>
       <c r="O3">
-        <v>11.63723389311863</v>
+        <v>19.11854880921704</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.50706498891252</v>
+        <v>7.790872487564901</v>
       </c>
       <c r="C4">
-        <v>6.692596850445369</v>
+        <v>4.982386937699148</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.94944188615701</v>
+        <v>24.1969539323007</v>
       </c>
       <c r="F4">
-        <v>31.29615165928932</v>
+        <v>38.86781928162924</v>
       </c>
       <c r="G4">
-        <v>15.93325441104194</v>
+        <v>23.32807108760148</v>
       </c>
       <c r="H4">
-        <v>7.713515057204913</v>
+        <v>13.09005124820734</v>
       </c>
       <c r="I4">
-        <v>11.24176969962063</v>
+        <v>18.53198862871566</v>
       </c>
       <c r="J4">
-        <v>4.370363913830983</v>
+        <v>7.677648911843264</v>
       </c>
       <c r="K4">
-        <v>10.54801739694704</v>
+        <v>7.622735934146376</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.74228932998747</v>
+        <v>17.31867845268268</v>
       </c>
       <c r="O4">
-        <v>11.71581797497921</v>
+        <v>19.17246895364721</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.29276023487985</v>
+        <v>7.704104046606272</v>
       </c>
       <c r="C5">
-        <v>6.596984981613345</v>
+        <v>4.939994029706461</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.55436972504118</v>
+        <v>24.11897057250206</v>
       </c>
       <c r="F5">
-        <v>30.90828598785775</v>
+        <v>38.8275897324293</v>
       </c>
       <c r="G5">
-        <v>15.93219288048637</v>
+        <v>23.35936121431279</v>
       </c>
       <c r="H5">
-        <v>7.739416082930614</v>
+        <v>13.10288331035658</v>
       </c>
       <c r="I5">
-        <v>11.29968235791762</v>
+        <v>18.55657855354491</v>
       </c>
       <c r="J5">
-        <v>4.382788993042905</v>
+        <v>7.683007675996249</v>
       </c>
       <c r="K5">
-        <v>10.38163795380914</v>
+        <v>7.564303078295577</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.77523852132565</v>
+        <v>17.33043412981202</v>
       </c>
       <c r="O5">
-        <v>11.75025729345365</v>
+        <v>19.1953924881433</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.25676064996044</v>
+        <v>7.689609337325827</v>
       </c>
       <c r="C6">
-        <v>6.580966076451008</v>
+        <v>4.932906969882729</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.4883005649734</v>
+        <v>24.10609013125547</v>
       </c>
       <c r="F6">
-        <v>30.84380273020047</v>
+        <v>38.82107051855483</v>
       </c>
       <c r="G6">
-        <v>15.93235226325499</v>
+        <v>23.36467193549046</v>
       </c>
       <c r="H6">
-        <v>7.74377636156794</v>
+        <v>13.1050420330416</v>
       </c>
       <c r="I6">
-        <v>11.30940080759409</v>
+        <v>18.56071086297759</v>
       </c>
       <c r="J6">
-        <v>4.384871105988674</v>
+        <v>7.683908122170872</v>
       </c>
       <c r="K6">
-        <v>10.35373195096697</v>
+        <v>7.554566067345839</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.78075215840005</v>
+        <v>17.33240914057174</v>
       </c>
       <c r="O6">
-        <v>11.75611854209875</v>
+        <v>19.19925631200786</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.50420260677951</v>
+        <v>7.789708208794845</v>
       </c>
       <c r="C7">
-        <v>6.691317004379285</v>
+        <v>4.981818441546268</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.94414541580358</v>
+        <v>24.19589767826425</v>
       </c>
       <c r="F7">
-        <v>31.29092640949426</v>
+        <v>38.86726596633494</v>
       </c>
       <c r="G7">
-        <v>15.93321741775592</v>
+        <v>23.32848535998968</v>
       </c>
       <c r="H7">
-        <v>7.713860365429655</v>
+        <v>13.09022243119219</v>
       </c>
       <c r="I7">
-        <v>11.24254385669164</v>
+        <v>18.53231696118645</v>
       </c>
       <c r="J7">
-        <v>4.370530213076848</v>
+        <v>7.677720469829391</v>
       </c>
       <c r="K7">
-        <v>10.54579229983093</v>
+        <v>7.621950242143622</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.74273084848594</v>
+        <v>17.31883545322093</v>
       </c>
       <c r="O7">
-        <v>11.71627280346249</v>
+        <v>19.1727742606222</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.53566363226759</v>
+        <v>8.21789929421136</v>
       </c>
       <c r="C8">
-        <v>7.157066851823163</v>
+        <v>5.190417424010424</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.88520729488329</v>
+        <v>24.6015375974401</v>
       </c>
       <c r="F8">
-        <v>33.24864483771482</v>
+        <v>39.0942805011437</v>
       </c>
       <c r="G8">
-        <v>15.98768895314397</v>
+        <v>23.18559040275493</v>
       </c>
       <c r="H8">
-        <v>7.590686057571848</v>
+        <v>13.02888928504723</v>
       </c>
       <c r="I8">
-        <v>10.96268861050306</v>
+        <v>18.41416292223541</v>
       </c>
       <c r="J8">
-        <v>4.31000172524489</v>
+        <v>7.651957577598512</v>
       </c>
       <c r="K8">
-        <v>11.35217235681874</v>
+        <v>7.966864340820921</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.58112358129965</v>
+        <v>17.26227354351739</v>
       </c>
       <c r="O8">
-        <v>11.56195887745414</v>
+        <v>19.06426317251054</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.34016041780695</v>
+        <v>9.001604659990042</v>
       </c>
       <c r="C9">
-        <v>7.990702930705557</v>
+        <v>5.570959895676215</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>28.42109497489659</v>
+        <v>25.42435025377697</v>
       </c>
       <c r="F9">
-        <v>37.00107798125629</v>
+        <v>39.62031214474187</v>
       </c>
       <c r="G9">
-        <v>16.29313774021811</v>
+        <v>22.96636444455567</v>
       </c>
       <c r="H9">
-        <v>7.383029890108925</v>
+        <v>12.92318896195629</v>
       </c>
       <c r="I9">
-        <v>10.47208796769505</v>
+        <v>18.20808225926502</v>
       </c>
       <c r="J9">
-        <v>4.201240474935705</v>
+        <v>7.606950264924009</v>
       </c>
       <c r="K9">
-        <v>12.78129446617176</v>
+        <v>8.655559722888032</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.28645277828442</v>
+        <v>17.1632887382745</v>
       </c>
       <c r="O9">
-        <v>11.3447036987204</v>
+        <v>18.88154361623148</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.53303317483325</v>
+        <v>9.537897479147201</v>
       </c>
       <c r="C10">
-        <v>8.552503368237478</v>
+        <v>5.831251201834129</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>30.84521368164307</v>
+        <v>26.03989778419768</v>
       </c>
       <c r="F10">
-        <v>39.68407988702809</v>
+        <v>40.0535961211289</v>
       </c>
       <c r="G10">
-        <v>16.65182949864575</v>
+        <v>22.8430519633223</v>
       </c>
       <c r="H10">
-        <v>7.253357369415493</v>
+        <v>12.8543895274177</v>
       </c>
       <c r="I10">
-        <v>10.1512395155641</v>
+        <v>18.07224456224639</v>
       </c>
       <c r="J10">
-        <v>4.12744242228693</v>
+        <v>7.577218198111928</v>
       </c>
       <c r="K10">
-        <v>13.73609766290218</v>
+        <v>9.121674202742664</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.08361304499599</v>
+        <v>17.09778611079511</v>
       </c>
       <c r="O10">
-        <v>11.24505974131403</v>
+        <v>18.7656908724834</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.04702651637603</v>
+        <v>9.772394112815807</v>
       </c>
       <c r="C11">
-        <v>8.796821158737533</v>
+        <v>5.945139326873177</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>31.90961959296038</v>
+        <v>26.32112373693212</v>
       </c>
       <c r="F11">
-        <v>40.88563495959671</v>
+        <v>40.26027012062145</v>
       </c>
       <c r="G11">
-        <v>16.84647950075738</v>
+        <v>22.79526684771253</v>
       </c>
       <c r="H11">
-        <v>7.19989171271245</v>
+        <v>12.82500920199449</v>
       </c>
       <c r="I11">
-        <v>10.0149693088318</v>
+        <v>18.01381974862309</v>
       </c>
       <c r="J11">
-        <v>4.09521442850859</v>
+        <v>7.564410849514546</v>
       </c>
       <c r="K11">
-        <v>14.14954005987167</v>
+        <v>9.324547642549595</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.9943373552345</v>
+        <v>17.06954423615808</v>
       </c>
       <c r="O11">
-        <v>11.2145805077347</v>
+        <v>18.71699329810553</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.23756360089958</v>
+        <v>9.859769220186093</v>
       </c>
       <c r="C12">
-        <v>8.887708618459545</v>
+        <v>5.987591903372323</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>32.30717550873886</v>
+        <v>26.4276922523951</v>
       </c>
       <c r="F12">
-        <v>41.33775123589227</v>
+        <v>40.33985309294153</v>
       </c>
       <c r="G12">
-        <v>16.92486851779884</v>
+        <v>22.77837576537417</v>
       </c>
       <c r="H12">
-        <v>7.180491535088112</v>
+        <v>12.81415894918124</v>
       </c>
       <c r="I12">
-        <v>9.964867745639371</v>
+        <v>17.99217961107486</v>
       </c>
       <c r="J12">
-        <v>4.083205855443698</v>
+        <v>7.559663859255843</v>
       </c>
       <c r="K12">
-        <v>14.30308486550525</v>
+        <v>9.400017195412929</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.96096657366374</v>
+        <v>17.05907265377757</v>
       </c>
       <c r="O12">
-        <v>11.20533249339684</v>
+        <v>18.69912985303071</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.19671007404839</v>
+        <v>9.84101564711715</v>
       </c>
       <c r="C13">
-        <v>8.868207025763787</v>
+        <v>5.978479334392341</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>32.22179937294675</v>
+        <v>26.40473907370212</v>
       </c>
       <c r="F13">
-        <v>41.24051013754021</v>
+        <v>40.32265569224739</v>
       </c>
       <c r="G13">
-        <v>16.90777577320227</v>
+        <v>22.78195986945865</v>
       </c>
       <c r="H13">
-        <v>7.184631203398063</v>
+        <v>12.81648349815767</v>
       </c>
       <c r="I13">
-        <v>9.975589379221814</v>
+        <v>17.9968186770583</v>
       </c>
       <c r="J13">
-        <v>4.085783380592374</v>
+        <v>7.560681638858842</v>
       </c>
       <c r="K13">
-        <v>14.27015050947836</v>
+        <v>9.383824231144706</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.96813408697034</v>
+        <v>17.06131798914071</v>
       </c>
       <c r="O13">
-        <v>11.20721962370919</v>
+        <v>18.70295136818738</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.06278418280406</v>
+        <v>9.779611374585762</v>
       </c>
       <c r="C14">
-        <v>8.804331250778938</v>
+        <v>5.948645571626353</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>31.94243705426257</v>
+        <v>26.32989026624158</v>
       </c>
       <c r="F14">
-        <v>40.92288937227372</v>
+        <v>40.26679133643045</v>
       </c>
       <c r="G14">
-        <v>16.85283405049626</v>
+        <v>22.79385302572552</v>
       </c>
       <c r="H14">
-        <v>7.198278377320484</v>
+        <v>12.82411102608628</v>
       </c>
       <c r="I14">
-        <v>10.01081666972411</v>
+        <v>18.01202970155853</v>
       </c>
       <c r="J14">
-        <v>4.094222543383416</v>
+        <v>7.564018252056901</v>
       </c>
       <c r="K14">
-        <v>14.16223278011749</v>
+        <v>9.330783898820446</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.99158315072374</v>
+        <v>17.0686782673719</v>
       </c>
       <c r="O14">
-        <v>11.21377277083694</v>
+        <v>18.71551208407003</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.98021727323516</v>
+        <v>9.74181237678035</v>
       </c>
       <c r="C15">
-        <v>8.764992898861019</v>
+        <v>5.930283028140146</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>31.77060258957321</v>
+        <v>26.28404997009488</v>
       </c>
       <c r="F15">
-        <v>40.72795793680277</v>
+        <v>40.23274299424335</v>
       </c>
       <c r="G15">
-        <v>16.81979412629164</v>
+        <v>22.80129499921007</v>
       </c>
       <c r="H15">
-        <v>7.206749473159404</v>
+        <v>12.82881897159646</v>
       </c>
       <c r="I15">
-        <v>10.03259333352308</v>
+        <v>18.02140992537282</v>
       </c>
       <c r="J15">
-        <v>4.099417307637592</v>
+        <v>7.566075410676744</v>
       </c>
       <c r="K15">
-        <v>14.09573698242859</v>
+        <v>9.298117812665216</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.00600332403333</v>
+        <v>17.07321567159284</v>
       </c>
       <c r="O15">
-        <v>11.21809027525254</v>
+        <v>18.72328110582988</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.49886748111616</v>
+        <v>9.522376546980482</v>
       </c>
       <c r="C16">
-        <v>8.536309028663398</v>
+        <v>5.823715241198824</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>30.77487991992508</v>
+        <v>26.02153479357109</v>
       </c>
       <c r="F16">
-        <v>39.60515872811945</v>
+        <v>40.0402773328485</v>
       </c>
       <c r="G16">
-        <v>16.63975574685649</v>
+        <v>22.84634284529466</v>
       </c>
       <c r="H16">
-        <v>7.256966945094727</v>
+        <v>12.85634815531642</v>
       </c>
       <c r="I16">
-        <v>10.16034892401494</v>
+        <v>18.07613051559077</v>
       </c>
       <c r="J16">
-        <v>4.129575812584898</v>
+        <v>7.578069603830566</v>
       </c>
       <c r="K16">
-        <v>13.70865647760782</v>
+        <v>9.108228305987076</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.08950813482271</v>
+        <v>17.09966302697244</v>
       </c>
       <c r="O16">
-        <v>11.24736386778882</v>
+        <v>18.76895407514462</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.19624874825833</v>
+        <v>9.385287985108496</v>
       </c>
       <c r="C17">
-        <v>8.393126641750117</v>
+        <v>5.757163436697043</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>30.1542040824112</v>
+        <v>25.86072867723988</v>
       </c>
       <c r="F17">
-        <v>38.91136703161774</v>
+        <v>39.92461807210636</v>
       </c>
       <c r="G17">
-        <v>16.53748750601182</v>
+        <v>22.87611332395992</v>
       </c>
       <c r="H17">
-        <v>7.289223803143509</v>
+        <v>12.8737272251796</v>
       </c>
       <c r="I17">
-        <v>10.24127615701845</v>
+        <v>18.11056233060012</v>
       </c>
       <c r="J17">
-        <v>4.14842258994146</v>
+        <v>7.585611270360613</v>
       </c>
       <c r="K17">
-        <v>13.46583090107192</v>
+        <v>8.989362463449044</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.14150649927162</v>
+        <v>17.11628555297228</v>
       </c>
       <c r="O17">
-        <v>11.26923664264116</v>
+        <v>18.79799960711925</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.01949227603544</v>
+        <v>9.305550441272349</v>
       </c>
       <c r="C18">
-        <v>8.309713522024412</v>
+        <v>5.718460456542417</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>29.79359621360478</v>
+        <v>25.76835702819466</v>
       </c>
       <c r="F18">
-        <v>38.51053744390146</v>
+        <v>39.85899833992917</v>
       </c>
       <c r="G18">
-        <v>16.48162105273975</v>
+        <v>22.89401820896851</v>
       </c>
       <c r="H18">
-        <v>7.30829356922436</v>
+        <v>12.88390364382688</v>
       </c>
       <c r="I18">
-        <v>10.28872770355672</v>
+        <v>18.13068366842419</v>
       </c>
       <c r="J18">
-        <v>4.159389010566631</v>
+        <v>7.590016632561714</v>
       </c>
       <c r="K18">
-        <v>13.32419670883645</v>
+        <v>8.920133204146641</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.17169632644378</v>
+        <v>17.12599285095548</v>
       </c>
       <c r="O18">
-        <v>11.28320514272653</v>
+        <v>18.81508265632377</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.95918166259922</v>
+        <v>9.278402248402005</v>
       </c>
       <c r="C19">
-        <v>8.281289996110159</v>
+        <v>5.70528423783937</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>29.67088097464895</v>
+        <v>25.73710521642975</v>
       </c>
       <c r="F19">
-        <v>38.37452389086126</v>
+        <v>39.83693763001735</v>
       </c>
       <c r="G19">
-        <v>16.46320816957915</v>
+        <v>22.90021446789369</v>
       </c>
       <c r="H19">
-        <v>7.314837462606386</v>
+        <v>12.88738020118694</v>
       </c>
       <c r="I19">
-        <v>10.30494623150387</v>
+        <v>18.13755087457979</v>
       </c>
       <c r="J19">
-        <v>4.163123672951285</v>
+        <v>7.591519833110805</v>
       </c>
       <c r="K19">
-        <v>13.27590438979188</v>
+        <v>8.896546722949052</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.18196633736796</v>
+        <v>17.12930475131764</v>
       </c>
       <c r="O19">
-        <v>11.28816825876065</v>
+        <v>18.82093136027653</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.22874215921541</v>
+        <v>9.39997366506293</v>
       </c>
       <c r="C20">
-        <v>8.408478306162191</v>
+        <v>5.764292073247895</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>30.22064999368605</v>
+        <v>25.8778350950257</v>
       </c>
       <c r="F20">
-        <v>38.98540783350779</v>
+        <v>39.9368369932049</v>
       </c>
       <c r="G20">
-        <v>16.54806706009748</v>
+        <v>22.87286323614008</v>
       </c>
       <c r="H20">
-        <v>7.285736191078847</v>
+        <v>12.87185852048062</v>
       </c>
       <c r="I20">
-        <v>10.23256697929128</v>
+        <v>18.10686419206149</v>
       </c>
       <c r="J20">
-        <v>4.146403236288449</v>
+        <v>7.584801453877003</v>
       </c>
       <c r="K20">
-        <v>13.49188381785906</v>
+        <v>9.002105301849399</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.13594199235475</v>
+        <v>17.11450090361754</v>
       </c>
       <c r="O20">
-        <v>11.2667634786138</v>
+        <v>18.79486865006567</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.10223259031786</v>
+        <v>9.797686390225298</v>
       </c>
       <c r="C21">
-        <v>8.823137432876898</v>
+        <v>5.957426954463791</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>32.02464189392705</v>
+        <v>26.35187394150016</v>
       </c>
       <c r="F21">
-        <v>41.01626158096737</v>
+        <v>40.28316468881727</v>
       </c>
       <c r="G21">
-        <v>16.86884368406428</v>
+        <v>22.79032696822371</v>
       </c>
       <c r="H21">
-        <v>7.194246471688122</v>
+        <v>12.8218631624738</v>
       </c>
       <c r="I21">
-        <v>10.00042789001846</v>
+        <v>18.00754871959077</v>
       </c>
       <c r="J21">
-        <v>4.09173843071446</v>
+        <v>7.563035418742754</v>
       </c>
       <c r="K21">
-        <v>14.19401275752497</v>
+        <v>9.346400147783415</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.98468371463563</v>
+        <v>17.0665103284426</v>
       </c>
       <c r="O21">
-        <v>11.21178441113548</v>
+        <v>18.71180701883657</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.64921712464643</v>
+        <v>10.04929344547667</v>
       </c>
       <c r="C22">
-        <v>9.084636529134219</v>
+        <v>6.079711535366966</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>33.17731084563204</v>
+        <v>26.66207446579965</v>
       </c>
       <c r="F22">
-        <v>42.3266889426108</v>
+        <v>40.51717599716936</v>
       </c>
       <c r="G22">
-        <v>17.10581696086757</v>
+        <v>22.74340707537039</v>
       </c>
       <c r="H22">
-        <v>7.139411873913755</v>
+        <v>12.79079368990525</v>
       </c>
       <c r="I22">
-        <v>9.857521330205907</v>
+        <v>17.94546174663244</v>
       </c>
       <c r="J22">
-        <v>4.057152608101263</v>
+        <v>7.549409525008293</v>
       </c>
       <c r="K22">
-        <v>14.635310522349</v>
+        <v>9.563509950341114</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.88837204338612</v>
+        <v>17.03644523334176</v>
       </c>
       <c r="O22">
-        <v>11.18929945397663</v>
+        <v>18.66088689227928</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.35945984919752</v>
+        <v>9.915785812227396</v>
       </c>
       <c r="C23">
-        <v>8.945941811484929</v>
+        <v>6.014813844895045</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>32.5623534663936</v>
+        <v>26.4965114018025</v>
       </c>
       <c r="F23">
-        <v>41.62886720636266</v>
+        <v>40.39159757026731</v>
       </c>
       <c r="G23">
-        <v>16.97679563933738</v>
+        <v>22.76780367770814</v>
       </c>
       <c r="H23">
-        <v>7.168205987431351</v>
+        <v>12.80722922333421</v>
       </c>
       <c r="I23">
-        <v>9.93294760178601</v>
+        <v>17.97834066059008</v>
       </c>
       <c r="J23">
-        <v>4.075506428940894</v>
+        <v>7.556627187514771</v>
       </c>
       <c r="K23">
-        <v>14.40139212881465</v>
+        <v>9.448368556285439</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.93954065066875</v>
+        <v>17.05237285857551</v>
       </c>
       <c r="O23">
-        <v>11.20001605475604</v>
+        <v>18.68775550218331</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.2140605390182</v>
+        <v>9.39333714081571</v>
       </c>
       <c r="C24">
-        <v>8.4015412303575</v>
+        <v>5.761070589860715</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>30.19062154904983</v>
+        <v>25.87010103313656</v>
       </c>
       <c r="F24">
-        <v>38.95194007739894</v>
+        <v>39.93131009121625</v>
       </c>
       <c r="G24">
-        <v>16.54327493263156</v>
+        <v>22.87433014246624</v>
       </c>
       <c r="H24">
-        <v>7.287311309514538</v>
+        <v>12.87270278571144</v>
       </c>
       <c r="I24">
-        <v>10.23650152412875</v>
+        <v>18.10853510490189</v>
       </c>
       <c r="J24">
-        <v>4.1473157777194</v>
+        <v>7.585167355215559</v>
       </c>
       <c r="K24">
-        <v>13.48011161790376</v>
+        <v>8.996347039281574</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.13845678658192</v>
+        <v>17.11530727384182</v>
       </c>
       <c r="O24">
-        <v>11.26787726741912</v>
+        <v>18.79628295850442</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.87537293912116</v>
+        <v>8.796185898812478</v>
       </c>
       <c r="C25">
-        <v>7.773966500772595</v>
+        <v>5.471276535536501</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>27.4946447046193</v>
+        <v>25.19941174175739</v>
       </c>
       <c r="F25">
-        <v>35.99768023809879</v>
+        <v>39.46959244178716</v>
       </c>
       <c r="G25">
-        <v>16.1877911980323</v>
+        <v>23.01908109726532</v>
       </c>
       <c r="H25">
-        <v>7.435360740211896</v>
+        <v>12.9502262232632</v>
       </c>
       <c r="I25">
-        <v>10.59818781526753</v>
+        <v>18.26109499813772</v>
       </c>
       <c r="J25">
-        <v>4.229595446793083</v>
+        <v>7.618538415504567</v>
       </c>
       <c r="K25">
-        <v>12.41126943256851</v>
+        <v>8.476055071961024</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.36378076930106</v>
+        <v>17.18879479629128</v>
       </c>
       <c r="O25">
-        <v>11.39354321644467</v>
+        <v>18.92774879806168</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_175/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.330358067558683</v>
+        <v>12.8003864416269</v>
       </c>
       <c r="C2">
-        <v>5.245086243497296</v>
+        <v>7.27796862092227</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.71350566460032</v>
+        <v>25.39330179989184</v>
       </c>
       <c r="F2">
-        <v>39.16134544342578</v>
+        <v>33.77417776406215</v>
       </c>
       <c r="G2">
-        <v>23.1509785461277</v>
+        <v>16.0153494818204</v>
       </c>
       <c r="H2">
-        <v>13.01325835140012</v>
+        <v>7.55952987479394</v>
       </c>
       <c r="I2">
-        <v>18.38388474352791</v>
+        <v>10.89066699601879</v>
       </c>
       <c r="J2">
-        <v>7.645351252191472</v>
+        <v>4.294272602357082</v>
       </c>
       <c r="K2">
-        <v>8.066406362232499</v>
+        <v>11.56048263873644</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.2477576635746</v>
+        <v>11.53883918555197</v>
       </c>
       <c r="O2">
-        <v>19.03689494036477</v>
+        <v>11.52564320515041</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.000109851581756</v>
+        <v>12.0160784539912</v>
       </c>
       <c r="C3">
-        <v>5.084424757290152</v>
+        <v>6.921343048942386</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.39100030984826</v>
+        <v>23.89947080181196</v>
       </c>
       <c r="F3">
-        <v>38.97303980010369</v>
+        <v>32.24406928551788</v>
       </c>
       <c r="G3">
-        <v>23.2559722498918</v>
+        <v>15.94981999199648</v>
       </c>
       <c r="H3">
-        <v>13.05969800669259</v>
+        <v>7.652403849674033</v>
       </c>
       <c r="I3">
-        <v>18.47364334783031</v>
+        <v>11.10385874028149</v>
       </c>
       <c r="J3">
-        <v>7.664930123680536</v>
+        <v>4.34064326375325</v>
       </c>
       <c r="K3">
-        <v>7.773221910830254</v>
+        <v>10.94486375541865</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.29076378730346</v>
+        <v>11.66315897689761</v>
       </c>
       <c r="O3">
-        <v>19.11854880921704</v>
+        <v>11.63723389311859</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.790872487564901</v>
+        <v>11.50706498891255</v>
       </c>
       <c r="C4">
-        <v>4.982386937699148</v>
+        <v>6.692596850445357</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24.1969539323007</v>
+        <v>22.94944188615704</v>
       </c>
       <c r="F4">
-        <v>38.86781928162924</v>
+        <v>31.29615165928928</v>
       </c>
       <c r="G4">
-        <v>23.32807108760148</v>
+        <v>15.93325441104166</v>
       </c>
       <c r="H4">
-        <v>13.09005124820734</v>
+        <v>7.713515057204731</v>
       </c>
       <c r="I4">
-        <v>18.53198862871566</v>
+        <v>11.24176969962045</v>
       </c>
       <c r="J4">
-        <v>7.677648911843264</v>
+        <v>4.370363913830919</v>
       </c>
       <c r="K4">
-        <v>7.622735934146376</v>
+        <v>10.5480173969471</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.31867845268268</v>
+        <v>11.74228932998737</v>
       </c>
       <c r="O4">
-        <v>19.17246895364721</v>
+        <v>11.71581797497905</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.704104046606272</v>
+        <v>11.29276023487979</v>
       </c>
       <c r="C5">
-        <v>4.939994029706461</v>
+        <v>6.596984981613417</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.11897057250206</v>
+        <v>22.55436972504118</v>
       </c>
       <c r="F5">
-        <v>38.8275897324293</v>
+        <v>30.9082859878578</v>
       </c>
       <c r="G5">
-        <v>23.35936121431279</v>
+        <v>15.93219288048638</v>
       </c>
       <c r="H5">
-        <v>13.10288331035658</v>
+        <v>7.739416082930734</v>
       </c>
       <c r="I5">
-        <v>18.55657855354491</v>
+        <v>11.29968235791765</v>
       </c>
       <c r="J5">
-        <v>7.683007675996249</v>
+        <v>4.382788993042906</v>
       </c>
       <c r="K5">
-        <v>7.564303078295577</v>
+        <v>10.38163795380911</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.33043412981202</v>
+        <v>11.77523852132564</v>
       </c>
       <c r="O5">
-        <v>19.1953924881433</v>
+        <v>11.75025729345368</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.689609337325827</v>
+        <v>11.25676064996045</v>
       </c>
       <c r="C6">
-        <v>4.932906969882729</v>
+        <v>6.58096607645119</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.10609013125547</v>
+        <v>22.48830056497343</v>
       </c>
       <c r="F6">
-        <v>38.82107051855483</v>
+        <v>30.8438027302005</v>
       </c>
       <c r="G6">
-        <v>23.36467193549046</v>
+        <v>15.93235226325498</v>
       </c>
       <c r="H6">
-        <v>13.1050420330416</v>
+        <v>7.743776361567882</v>
       </c>
       <c r="I6">
-        <v>18.56071086297759</v>
+        <v>11.30940080759403</v>
       </c>
       <c r="J6">
-        <v>7.683908122170872</v>
+        <v>4.384871105988577</v>
       </c>
       <c r="K6">
-        <v>7.554566067345839</v>
+        <v>10.35373195096701</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.33240914057174</v>
+        <v>11.78075215840001</v>
       </c>
       <c r="O6">
-        <v>19.19925631200786</v>
+        <v>11.75611854209866</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.789708208794845</v>
+        <v>11.5042026067795</v>
       </c>
       <c r="C7">
-        <v>4.981818441546268</v>
+        <v>6.69131700437927</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24.19589767826425</v>
+        <v>22.94414541580355</v>
       </c>
       <c r="F7">
-        <v>38.86726596633494</v>
+        <v>31.29092640949424</v>
       </c>
       <c r="G7">
-        <v>23.32848535998968</v>
+        <v>15.93321741775597</v>
       </c>
       <c r="H7">
-        <v>13.09022243119219</v>
+        <v>7.713860365429717</v>
       </c>
       <c r="I7">
-        <v>18.53231696118645</v>
+        <v>11.24254385669172</v>
       </c>
       <c r="J7">
-        <v>7.677720469829391</v>
+        <v>4.370530213076847</v>
       </c>
       <c r="K7">
-        <v>7.621950242143622</v>
+        <v>10.54579229983093</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.31883545322093</v>
+        <v>11.74273084848604</v>
       </c>
       <c r="O7">
-        <v>19.1727742606222</v>
+        <v>11.71627280346256</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.21789929421136</v>
+        <v>12.53566363226754</v>
       </c>
       <c r="C8">
-        <v>5.190417424010424</v>
+        <v>7.157066851823421</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.6015375974401</v>
+        <v>24.88520729488331</v>
       </c>
       <c r="F8">
-        <v>39.0942805011437</v>
+        <v>33.24864483771488</v>
       </c>
       <c r="G8">
-        <v>23.18559040275493</v>
+        <v>15.98768895314403</v>
       </c>
       <c r="H8">
-        <v>13.02888928504723</v>
+        <v>7.590686057571847</v>
       </c>
       <c r="I8">
-        <v>18.41416292223541</v>
+        <v>10.96268861050314</v>
       </c>
       <c r="J8">
-        <v>7.651957577598512</v>
+        <v>4.310001725244956</v>
       </c>
       <c r="K8">
-        <v>7.966864340820921</v>
+        <v>11.35217235681873</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.26227354351739</v>
+        <v>11.58112358129972</v>
       </c>
       <c r="O8">
-        <v>19.06426317251054</v>
+        <v>11.56195887745418</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.001604659990042</v>
+        <v>14.34016041780695</v>
       </c>
       <c r="C9">
-        <v>5.570959895676215</v>
+        <v>7.990702930705618</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.42435025377697</v>
+        <v>28.42109497489654</v>
       </c>
       <c r="F9">
-        <v>39.62031214474187</v>
+        <v>37.0010779812563</v>
       </c>
       <c r="G9">
-        <v>22.96636444455567</v>
+        <v>16.29313774021796</v>
       </c>
       <c r="H9">
-        <v>12.92318896195629</v>
+        <v>7.383029890108992</v>
       </c>
       <c r="I9">
-        <v>18.20808225926502</v>
+        <v>10.47208796769504</v>
       </c>
       <c r="J9">
-        <v>7.606950264924009</v>
+        <v>4.201240474935705</v>
       </c>
       <c r="K9">
-        <v>8.655559722888032</v>
+        <v>12.78129446617175</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.1632887382745</v>
+        <v>11.28645277828438</v>
       </c>
       <c r="O9">
-        <v>18.88154361623148</v>
+        <v>11.34470369872037</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.537897479147201</v>
+        <v>15.53303317483323</v>
       </c>
       <c r="C10">
-        <v>5.831251201834129</v>
+        <v>8.552503368237478</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.03989778419768</v>
+        <v>30.84521368164305</v>
       </c>
       <c r="F10">
-        <v>40.0535961211289</v>
+        <v>39.6840798870281</v>
       </c>
       <c r="G10">
-        <v>22.8430519633223</v>
+        <v>16.6518294986459</v>
       </c>
       <c r="H10">
-        <v>12.8543895274177</v>
+        <v>7.253357369415496</v>
       </c>
       <c r="I10">
-        <v>18.07224456224639</v>
+        <v>10.15123951556416</v>
       </c>
       <c r="J10">
-        <v>7.577218198111928</v>
+        <v>4.127442422286961</v>
       </c>
       <c r="K10">
-        <v>9.121674202742664</v>
+        <v>13.73609766290214</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.09778611079511</v>
+        <v>11.08361304499605</v>
       </c>
       <c r="O10">
-        <v>18.7656908724834</v>
+        <v>11.24505974131408</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.772394112815807</v>
+        <v>16.0470265163761</v>
       </c>
       <c r="C11">
-        <v>5.945139326873177</v>
+        <v>8.796821158737519</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.32112373693212</v>
+        <v>31.9096195929604</v>
       </c>
       <c r="F11">
-        <v>40.26027012062145</v>
+        <v>40.88563495959674</v>
       </c>
       <c r="G11">
-        <v>22.79526684771253</v>
+        <v>16.84647950075736</v>
       </c>
       <c r="H11">
-        <v>12.82500920199449</v>
+        <v>7.19989171271246</v>
       </c>
       <c r="I11">
-        <v>18.01381974862309</v>
+        <v>10.01496930883179</v>
       </c>
       <c r="J11">
-        <v>7.564410849514546</v>
+        <v>4.095214428508529</v>
       </c>
       <c r="K11">
-        <v>9.324547642549595</v>
+        <v>14.14954005987171</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.06954423615808</v>
+        <v>10.9943373552345</v>
       </c>
       <c r="O11">
-        <v>18.71699329810553</v>
+        <v>11.21458050773467</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.859769220186093</v>
+        <v>16.23756360089958</v>
       </c>
       <c r="C12">
-        <v>5.987591903372323</v>
+        <v>8.887708618459587</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>26.4276922523951</v>
+        <v>32.30717550873884</v>
       </c>
       <c r="F12">
-        <v>40.33985309294153</v>
+        <v>41.33775123589233</v>
       </c>
       <c r="G12">
-        <v>22.77837576537417</v>
+        <v>16.92486851779891</v>
       </c>
       <c r="H12">
-        <v>12.81415894918124</v>
+        <v>7.180491535088056</v>
       </c>
       <c r="I12">
-        <v>17.99217961107486</v>
+        <v>9.964867745639333</v>
       </c>
       <c r="J12">
-        <v>7.559663859255843</v>
+        <v>4.083205855443666</v>
       </c>
       <c r="K12">
-        <v>9.400017195412929</v>
+        <v>14.30308486550525</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.05907265377757</v>
+        <v>10.9609665736637</v>
       </c>
       <c r="O12">
-        <v>18.69912985303071</v>
+        <v>11.20533249339684</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.84101564711715</v>
+        <v>16.1967100740484</v>
       </c>
       <c r="C13">
-        <v>5.978479334392341</v>
+        <v>8.868207025763846</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>26.40473907370212</v>
+        <v>32.22179937294673</v>
       </c>
       <c r="F13">
-        <v>40.32265569224739</v>
+        <v>41.2405101375402</v>
       </c>
       <c r="G13">
-        <v>22.78195986945865</v>
+        <v>16.90777577320228</v>
       </c>
       <c r="H13">
-        <v>12.81648349815767</v>
+        <v>7.184631203398069</v>
       </c>
       <c r="I13">
-        <v>17.9968186770583</v>
+        <v>9.975589379221844</v>
       </c>
       <c r="J13">
-        <v>7.560681638858842</v>
+        <v>4.085783380592401</v>
       </c>
       <c r="K13">
-        <v>9.383824231144706</v>
+        <v>14.27015050947841</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.06131798914071</v>
+        <v>10.9681340869704</v>
       </c>
       <c r="O13">
-        <v>18.70295136818738</v>
+        <v>11.2072196237092</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.779611374585762</v>
+        <v>16.06278418280408</v>
       </c>
       <c r="C14">
-        <v>5.948645571626353</v>
+        <v>8.804331250778914</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.32989026624158</v>
+        <v>31.94243705426258</v>
       </c>
       <c r="F14">
-        <v>40.26679133643045</v>
+        <v>40.92288937227369</v>
       </c>
       <c r="G14">
-        <v>22.79385302572552</v>
+        <v>16.85283405049615</v>
       </c>
       <c r="H14">
-        <v>12.82411102608628</v>
+        <v>7.198278377320366</v>
       </c>
       <c r="I14">
-        <v>18.01202970155853</v>
+        <v>10.010816669724</v>
       </c>
       <c r="J14">
-        <v>7.564018252056901</v>
+        <v>4.094222543383418</v>
       </c>
       <c r="K14">
-        <v>9.330783898820446</v>
+        <v>14.16223278011749</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.0686782673719</v>
+        <v>10.99158315072364</v>
       </c>
       <c r="O14">
-        <v>18.71551208407003</v>
+        <v>11.21377277083682</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.74181237678035</v>
+        <v>15.98021727323513</v>
       </c>
       <c r="C15">
-        <v>5.930283028140146</v>
+        <v>8.764992898861006</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>26.28404997009488</v>
+        <v>31.77060258957318</v>
       </c>
       <c r="F15">
-        <v>40.23274299424335</v>
+        <v>40.72795793680277</v>
       </c>
       <c r="G15">
-        <v>22.80129499921007</v>
+        <v>16.81979412629155</v>
       </c>
       <c r="H15">
-        <v>12.82881897159646</v>
+        <v>7.206749473159414</v>
       </c>
       <c r="I15">
-        <v>18.02140992537282</v>
+        <v>10.03259333352303</v>
       </c>
       <c r="J15">
-        <v>7.566075410676744</v>
+        <v>4.099417307637561</v>
       </c>
       <c r="K15">
-        <v>9.298117812665216</v>
+        <v>14.09573698242859</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.07321567159284</v>
+        <v>11.00600332403326</v>
       </c>
       <c r="O15">
-        <v>18.72328110582988</v>
+        <v>11.21809027525248</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.522376546980482</v>
+        <v>15.4988674811162</v>
       </c>
       <c r="C16">
-        <v>5.823715241198824</v>
+        <v>8.536309028663371</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.02153479357109</v>
+        <v>30.77487991992509</v>
       </c>
       <c r="F16">
-        <v>40.0402773328485</v>
+        <v>39.60515872811945</v>
       </c>
       <c r="G16">
-        <v>22.84634284529466</v>
+        <v>16.63975574685653</v>
       </c>
       <c r="H16">
-        <v>12.85634815531642</v>
+        <v>7.256966945094681</v>
       </c>
       <c r="I16">
-        <v>18.07613051559077</v>
+        <v>10.16034892401493</v>
       </c>
       <c r="J16">
-        <v>7.578069603830566</v>
+        <v>4.129575812584869</v>
       </c>
       <c r="K16">
-        <v>9.108228305987076</v>
+        <v>13.70865647760784</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.09966302697244</v>
+        <v>11.0895081348227</v>
       </c>
       <c r="O16">
-        <v>18.76895407514462</v>
+        <v>11.2473638677888</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.385287985108496</v>
+        <v>15.19624874825833</v>
       </c>
       <c r="C17">
-        <v>5.757163436697043</v>
+        <v>8.393126641750159</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.86072867723988</v>
+        <v>30.15420408241118</v>
       </c>
       <c r="F17">
-        <v>39.92461807210636</v>
+        <v>38.91136703161774</v>
       </c>
       <c r="G17">
-        <v>22.87611332395992</v>
+        <v>16.53748750601167</v>
       </c>
       <c r="H17">
-        <v>12.8737272251796</v>
+        <v>7.289223803143509</v>
       </c>
       <c r="I17">
-        <v>18.11056233060012</v>
+        <v>10.24127615701845</v>
       </c>
       <c r="J17">
-        <v>7.585611270360613</v>
+        <v>4.148422589941463</v>
       </c>
       <c r="K17">
-        <v>8.989362463449044</v>
+        <v>13.46583090107195</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.11628555297228</v>
+        <v>11.14150649927162</v>
       </c>
       <c r="O17">
-        <v>18.79799960711925</v>
+        <v>11.26923664264113</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.305550441272349</v>
+        <v>15.01949227603544</v>
       </c>
       <c r="C18">
-        <v>5.718460456542417</v>
+        <v>8.309713522024515</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.76835702819466</v>
+        <v>29.79359621360477</v>
       </c>
       <c r="F18">
-        <v>39.85899833992917</v>
+        <v>38.51053744390146</v>
       </c>
       <c r="G18">
-        <v>22.89401820896851</v>
+        <v>16.48162105273965</v>
       </c>
       <c r="H18">
-        <v>12.88390364382688</v>
+        <v>7.308293569224313</v>
       </c>
       <c r="I18">
-        <v>18.13068366842419</v>
+        <v>10.28872770355667</v>
       </c>
       <c r="J18">
-        <v>7.590016632561714</v>
+        <v>4.159389010566631</v>
       </c>
       <c r="K18">
-        <v>8.920133204146641</v>
+        <v>13.32419670883649</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.12599285095548</v>
+        <v>11.17169632644375</v>
       </c>
       <c r="O18">
-        <v>18.81508265632377</v>
+        <v>11.28320514272647</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.278402248402005</v>
+        <v>14.95918166259924</v>
       </c>
       <c r="C19">
-        <v>5.70528423783937</v>
+        <v>8.281289996110043</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.73710521642975</v>
+        <v>29.67088097464893</v>
       </c>
       <c r="F19">
-        <v>39.83693763001735</v>
+        <v>38.37452389086124</v>
       </c>
       <c r="G19">
-        <v>22.90021446789369</v>
+        <v>16.46320816957913</v>
       </c>
       <c r="H19">
-        <v>12.88738020118694</v>
+        <v>7.314837462606338</v>
       </c>
       <c r="I19">
-        <v>18.13755087457979</v>
+        <v>10.30494623150382</v>
       </c>
       <c r="J19">
-        <v>7.591519833110805</v>
+        <v>4.163123672951219</v>
       </c>
       <c r="K19">
-        <v>8.896546722949052</v>
+        <v>13.27590438979188</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.12930475131764</v>
+        <v>11.18196633736792</v>
       </c>
       <c r="O19">
-        <v>18.82093136027653</v>
+        <v>11.28816825876063</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.39997366506293</v>
+        <v>15.2287421592154</v>
       </c>
       <c r="C20">
-        <v>5.764292073247895</v>
+        <v>8.40847830616209</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>25.8778350950257</v>
+        <v>30.22064999368606</v>
       </c>
       <c r="F20">
-        <v>39.9368369932049</v>
+        <v>38.98540783350782</v>
       </c>
       <c r="G20">
-        <v>22.87286323614008</v>
+        <v>16.54806706009758</v>
       </c>
       <c r="H20">
-        <v>12.87185852048062</v>
+        <v>7.285736191078906</v>
       </c>
       <c r="I20">
-        <v>18.10686419206149</v>
+        <v>10.23256697929139</v>
       </c>
       <c r="J20">
-        <v>7.584801453877003</v>
+        <v>4.146403236288391</v>
       </c>
       <c r="K20">
-        <v>9.002105301849399</v>
+        <v>13.49188381785908</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.11450090361754</v>
+        <v>11.13594199235485</v>
       </c>
       <c r="O20">
-        <v>18.79486865006567</v>
+        <v>11.26676347861391</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.797686390225298</v>
+        <v>16.10223259031789</v>
       </c>
       <c r="C21">
-        <v>5.957426954463791</v>
+        <v>8.8231374328769</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.35187394150016</v>
+        <v>32.02464189392707</v>
       </c>
       <c r="F21">
-        <v>40.28316468881727</v>
+        <v>41.01626158096742</v>
       </c>
       <c r="G21">
-        <v>22.79032696822371</v>
+        <v>16.86884368406427</v>
       </c>
       <c r="H21">
-        <v>12.8218631624738</v>
+        <v>7.194246471688125</v>
       </c>
       <c r="I21">
-        <v>18.00754871959077</v>
+        <v>10.00042789001841</v>
       </c>
       <c r="J21">
-        <v>7.563035418742754</v>
+        <v>4.091738430714424</v>
       </c>
       <c r="K21">
-        <v>9.346400147783415</v>
+        <v>14.19401275752498</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.0665103284426</v>
+        <v>10.98468371463559</v>
       </c>
       <c r="O21">
-        <v>18.71180701883657</v>
+        <v>11.21178441113547</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.04929344547667</v>
+        <v>16.64921712464653</v>
       </c>
       <c r="C22">
-        <v>6.079711535366966</v>
+        <v>9.08463652913402</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>26.66207446579965</v>
+        <v>33.17731084563199</v>
       </c>
       <c r="F22">
-        <v>40.51717599716936</v>
+        <v>42.32668894261082</v>
       </c>
       <c r="G22">
-        <v>22.74340707537039</v>
+        <v>17.10581696086743</v>
       </c>
       <c r="H22">
-        <v>12.79079368990525</v>
+        <v>7.139411873913764</v>
       </c>
       <c r="I22">
-        <v>17.94546174663244</v>
+        <v>9.857521330205778</v>
       </c>
       <c r="J22">
-        <v>7.549409525008293</v>
+        <v>4.057152608101263</v>
       </c>
       <c r="K22">
-        <v>9.563509950341114</v>
+        <v>14.63531052234904</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.03644523334176</v>
+        <v>10.88837204338608</v>
       </c>
       <c r="O22">
-        <v>18.66088689227928</v>
+        <v>11.18929945397655</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.915785812227396</v>
+        <v>16.35945984919755</v>
       </c>
       <c r="C23">
-        <v>6.014813844895045</v>
+        <v>8.945941811484929</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>26.4965114018025</v>
+        <v>32.56235346639359</v>
       </c>
       <c r="F23">
-        <v>40.39159757026731</v>
+        <v>41.62886720636261</v>
       </c>
       <c r="G23">
-        <v>22.76780367770814</v>
+        <v>16.97679563933731</v>
       </c>
       <c r="H23">
-        <v>12.80722922333421</v>
+        <v>7.168205987431395</v>
       </c>
       <c r="I23">
-        <v>17.97834066059008</v>
+        <v>9.932947601785997</v>
       </c>
       <c r="J23">
-        <v>7.556627187514771</v>
+        <v>4.07550642894093</v>
       </c>
       <c r="K23">
-        <v>9.448368556285439</v>
+        <v>14.40139212881467</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.05237285857551</v>
+        <v>10.93954065066879</v>
       </c>
       <c r="O23">
-        <v>18.68775550218331</v>
+        <v>11.20001605475603</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.39333714081571</v>
+        <v>15.21406053901825</v>
       </c>
       <c r="C24">
-        <v>5.761070589860715</v>
+        <v>8.401541230357385</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.87010103313656</v>
+        <v>30.19062154904987</v>
       </c>
       <c r="F24">
-        <v>39.93131009121625</v>
+        <v>38.95194007739899</v>
       </c>
       <c r="G24">
-        <v>22.87433014246624</v>
+        <v>16.54327493263147</v>
       </c>
       <c r="H24">
-        <v>12.87270278571144</v>
+        <v>7.287311309514481</v>
       </c>
       <c r="I24">
-        <v>18.10853510490189</v>
+        <v>10.23650152412862</v>
       </c>
       <c r="J24">
-        <v>7.585167355215559</v>
+        <v>4.147315777719401</v>
       </c>
       <c r="K24">
-        <v>8.996347039281574</v>
+        <v>13.48011161790381</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.11530727384182</v>
+        <v>11.13845678658188</v>
       </c>
       <c r="O24">
-        <v>18.79628295850442</v>
+        <v>11.26787726741903</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.796185898812478</v>
+        <v>13.87537293912119</v>
       </c>
       <c r="C25">
-        <v>5.471276535536501</v>
+        <v>7.773966500772371</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.19941174175739</v>
+        <v>27.49464470461928</v>
       </c>
       <c r="F25">
-        <v>39.46959244178716</v>
+        <v>35.99768023809875</v>
       </c>
       <c r="G25">
-        <v>23.01908109726532</v>
+        <v>16.18779119803218</v>
       </c>
       <c r="H25">
-        <v>12.9502262232632</v>
+        <v>7.435360740211842</v>
       </c>
       <c r="I25">
-        <v>18.26109499813772</v>
+        <v>10.59818781526742</v>
       </c>
       <c r="J25">
-        <v>7.618538415504567</v>
+        <v>4.229595446793019</v>
       </c>
       <c r="K25">
-        <v>8.476055071961024</v>
+        <v>12.41126943256846</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.18879479629128</v>
+        <v>11.36378076930092</v>
       </c>
       <c r="O25">
-        <v>18.92774879806168</v>
+        <v>11.3935432164446</v>
       </c>
     </row>
   </sheetData>
